--- a/teaching/CSMC/2425/static/labsheets/00-ISBN.xlsx
+++ b/teaching/CSMC/2425/static/labsheets/00-ISBN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheffieldhallam-my.sharepoint.com/personal/acesac5_hallam_shu_ac_uk/Documents/Teaching/CSMC/2425/crypto_site_2425/static/labsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acesac5\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{A2049F66-EA88-4B99-868C-DE3AEFA3E228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B77D9B0-C697-446F-B71F-AC4E9AA01398}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420760BE-CDB1-4655-9C3E-000D0A9BAED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{97B3E531-F7AB-4CDF-B5C0-DC8460CDBF70}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" xr2:uid="{97B3E531-F7AB-4CDF-B5C0-DC8460CDBF70}"/>
   </bookViews>
   <sheets>
     <sheet name="ISBN-10" sheetId="1" r:id="rId1"/>
@@ -450,16 +450,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24277FCE-BFDE-4F3B-B1D5-53D566CC9AF6}">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="11" width="11.140625" customWidth="1"/>
+    <col min="2" max="11" width="11.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +467,7 @@
         <v>1107601967</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -502,7 +502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -511,7 +511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -526,61 +526,9 @@
       </c>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B5">
-        <f>MOD(B4,11)</f>
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ref="C5:K5" si="0">MOD(C4,11)</f>
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <f>SUM(B5:K5)</f>
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <f>MOD(M5,11)</f>
-        <v>0</v>
-      </c>
-      <c r="O5" t="str">
-        <f>IF(N5=0,"Valid","Invalid")</f>
-        <v>Valid</v>
       </c>
     </row>
   </sheetData>
@@ -592,17 +540,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E086D9-6C04-412E-85A0-7C3A68D3592C}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="11" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.15234375" customWidth="1"/>
+    <col min="3" max="11" width="11.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -610,7 +558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -654,7 +602,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -711,7 +659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -755,7 +703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -769,7 +717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
